--- a/DOCUMENTACION DE MASTER BARBER/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
+++ b/DOCUMENTACION DE MASTER BARBER/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\Practicas\DOCUMENTACION DE MASTER BARBER\DICCIONARIO DE BASE DE DATOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\MASTER-BARBER-REACT\DOCUMENTACION DE MASTER BARBER\DICCIONARIO DE BASE DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE98820A-211A-4B7B-85A0-C3226034A60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E7777F-BB9A-412F-ADD8-99A50D950F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="4" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
-    <sheet name="usuarios " sheetId="1" r:id="rId1"/>
-    <sheet name="rol" sheetId="3" r:id="rId2"/>
-    <sheet name="reserva_turno" sheetId="5" r:id="rId3"/>
-    <sheet name="tipo_servicio " sheetId="9" r:id="rId4"/>
-    <sheet name="inventario" sheetId="7" r:id="rId5"/>
-    <sheet name="categoria_producto" sheetId="20" r:id="rId6"/>
-    <sheet name="addbarberos" sheetId="6" r:id="rId7"/>
+    <sheet name="1.USUARIOS" sheetId="1" r:id="rId1"/>
+    <sheet name="2.ROL" sheetId="3" r:id="rId2"/>
+    <sheet name="3.RESERVAS" sheetId="5" r:id="rId3"/>
+    <sheet name="4.TIPO_SERVICIO" sheetId="9" r:id="rId4"/>
+    <sheet name="5.INVENTARIO" sheetId="7" r:id="rId5"/>
+    <sheet name="6.CATEGORIA_PRODUCTO" sheetId="20" r:id="rId6"/>
+    <sheet name="7.CALIFICACIONES" sheetId="6" r:id="rId7"/>
+    <sheet name="8.NOTIFICACIONES" sheetId="21" r:id="rId8"/>
+    <sheet name="9.VENTAS" sheetId="22" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="108">
   <si>
     <t>column name</t>
   </si>
@@ -57,30 +59,6 @@
     <t>VARCHAR</t>
   </si>
   <si>
-    <t>Contraseña</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Nit</t>
-  </si>
-  <si>
-    <t>Telefono</t>
-  </si>
-  <si>
-    <t>Nombre_usuario</t>
-  </si>
-  <si>
-    <t>Reserva de turno</t>
-  </si>
-  <si>
-    <t>ID_ReservaTurno</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
     <t>Precio</t>
   </si>
   <si>
@@ -90,21 +68,9 @@
     <t>ID único de la reserva de turno</t>
   </si>
   <si>
-    <t>ID_producto</t>
-  </si>
-  <si>
-    <t>ID único de la compra</t>
-  </si>
-  <si>
-    <t>Precio total de la compra</t>
-  </si>
-  <si>
     <t>Tipos de pago para la compra</t>
   </si>
   <si>
-    <t xml:space="preserve">ID unico del del producto de la compra </t>
-  </si>
-  <si>
     <t>Producto</t>
   </si>
   <si>
@@ -114,36 +80,12 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Aceptar_Turno</t>
-  </si>
-  <si>
-    <t>Cancelar_Turno</t>
-  </si>
-  <si>
-    <t>Se acepta el turno</t>
-  </si>
-  <si>
-    <t>Se cancela el turno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo Servicio </t>
-  </si>
-  <si>
     <t>Nombre del servicio</t>
   </si>
   <si>
     <t>Precio del servicio</t>
   </si>
   <si>
-    <t>ID unico del tipo de servico para la reserva del turno</t>
-  </si>
-  <si>
-    <t>Descripcion de la compra</t>
-  </si>
-  <si>
     <t>ID único del producto</t>
   </si>
   <si>
@@ -153,12 +95,6 @@
     <t>descripcion del producto</t>
   </si>
   <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>ID único del tipo de producto</t>
-  </si>
-  <si>
     <t>Categoria del producto</t>
   </si>
   <si>
@@ -168,27 +104,15 @@
     <t>ID Unico para Categoria_Producto</t>
   </si>
   <si>
-    <t>ID_usuario</t>
-  </si>
-  <si>
     <t>Rol</t>
   </si>
   <si>
-    <t>ID_rol</t>
-  </si>
-  <si>
-    <t>Nombre_rol</t>
-  </si>
-  <si>
     <t>Nombre del rol</t>
   </si>
   <si>
     <t>ID único del rol</t>
   </si>
   <si>
-    <t>ID unico del usuario para la reserva de turno</t>
-  </si>
-  <si>
     <t>ID único del usuario</t>
   </si>
   <si>
@@ -210,9 +134,6 @@
     <t>ID unico del rol del usuario</t>
   </si>
   <si>
-    <t>ID_categoria_producto</t>
-  </si>
-  <si>
     <t>Usuarios</t>
   </si>
   <si>
@@ -228,27 +149,6 @@
     <t>Descripcion_S</t>
   </si>
   <si>
-    <t>Descripcion_P</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>Hora para la reseerva del turno</t>
-  </si>
-  <si>
-    <t>Fecha para la reseerva del turno</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>ID_tipo_servicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hora </t>
-  </si>
-  <si>
     <t>user_reset_code</t>
   </si>
   <si>
@@ -258,19 +158,205 @@
     <t>Codigo de recuperacion de contraseña</t>
   </si>
   <si>
-    <t xml:space="preserve">codigo expirado </t>
-  </si>
-  <si>
     <t>PrecioUnitario</t>
   </si>
   <si>
-    <t>AddBarberos</t>
-  </si>
-  <si>
-    <t>ID_barbero</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
+    <t>id_usuario</t>
+  </si>
+  <si>
+    <t>nombre_usuario</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>nit</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>contrasena</t>
+  </si>
+  <si>
+    <t>id_rol</t>
+  </si>
+  <si>
+    <t>Foto</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>Foto de usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codigo expirado </t>
+  </si>
+  <si>
+    <t>Descripcion del usuario</t>
+  </si>
+  <si>
+    <t>nombre_rol</t>
+  </si>
+  <si>
+    <t>Reservas</t>
+  </si>
+  <si>
+    <t>id_reserva</t>
+  </si>
+  <si>
+    <t>cliente_id</t>
+  </si>
+  <si>
+    <t>barbero_id</t>
+  </si>
+  <si>
+    <t>servicio</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>ID unico del cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID unico del barbero </t>
+  </si>
+  <si>
+    <t>ID unico del servicio</t>
+  </si>
+  <si>
+    <t>Fecha de la reserva</t>
+  </si>
+  <si>
+    <t>Estado de la reserva</t>
+  </si>
+  <si>
+    <t>id_producto</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>descripcion_P</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>id_categoria_producto</t>
+  </si>
+  <si>
+    <t>proveedor</t>
+  </si>
+  <si>
+    <t>fecha_venta</t>
+  </si>
+  <si>
+    <t>Proveedor del producto</t>
+  </si>
+  <si>
+    <t>Precio unico de cada producto</t>
+  </si>
+  <si>
+    <t>fecha de la venta de los productos</t>
+  </si>
+  <si>
+    <t>Foto descriptiva del producto</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>usuario_id</t>
+  </si>
+  <si>
+    <t>puntuacion</t>
+  </si>
+  <si>
+    <t>comentario</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID unico del usuario </t>
+  </si>
+  <si>
+    <t>Calificaciones</t>
+  </si>
+  <si>
+    <t>Puntuacion de la calificacion</t>
+  </si>
+  <si>
+    <t>Comentario de la calificacion</t>
+  </si>
+  <si>
+    <t>Notificaciones</t>
+  </si>
+  <si>
+    <t>id_notificaciones</t>
+  </si>
+  <si>
+    <t>mensaje</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>Mensaje de la notificacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID unico del usuario para la notificacion </t>
+  </si>
+  <si>
+    <t>Fecha que se realizo la reserva</t>
+  </si>
+  <si>
+    <t>Tipo servicio</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>ID unico del producto vendido</t>
+  </si>
+  <si>
+    <t>Cantidad vendida</t>
+  </si>
+  <si>
+    <t>Fecha de la venta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio de la venta </t>
+  </si>
+  <si>
+    <t>ID de la venta</t>
+  </si>
+  <si>
+    <t>Nombre del producto vendido</t>
+  </si>
+  <si>
+    <t>ID único de la notificacion</t>
+  </si>
+  <si>
+    <t>ID único de la calificacion</t>
+  </si>
+  <si>
+    <t>ID único del categoria del producto</t>
   </si>
 </sst>
 </file>
@@ -330,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -420,37 +506,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -470,15 +530,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -489,6 +540,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9420D3FF-ED13-41A9-8DE4-2B36600C40CA}">
-  <dimension ref="B1:G12"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,175 +899,210 @@
     <col min="7" max="7" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    <row r="14" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +1119,7 @@
   <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,14 +1131,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1044,34 +1162,34 @@
     </row>
     <row r="4" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1084,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF61CE-D33A-4256-9734-775E9712A8C7}">
-  <dimension ref="B1:G10"/>
+  <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,14 +1217,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1130,23 +1248,23 @@
     </row>
     <row r="4" spans="2:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1154,90 +1272,74 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>15</v>
+      <c r="B6" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>71</v>
+      <c r="B7" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G7" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1355,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,14 +1367,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1296,66 +1398,66 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1370,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C30701A-A241-497A-87AC-90B96D43611C}">
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,14 +1487,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1416,71 +1518,71 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -1488,26 +1590,74 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>23</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1522,27 +1672,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2D4616-9B7D-48B5-BA5E-E7ABB003E7B0}">
   <dimension ref="B1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1"/>
+    <col min="7" max="7" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1566,34 +1716,34 @@
     </row>
     <row r="4" spans="2:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1608,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56231A21-352E-4BA6-9095-2CC725DDC383}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,14 +1771,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1652,53 +1802,68 @@
     </row>
     <row r="4" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G5" s="4" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1709,7 +1874,291 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BB2323-8977-446F-9119-FFB6B489B76F}">
+  <dimension ref="B1:G7"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="48.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E5109C-8616-4405-A6A2-C4F857DEC25D}">
+  <dimension ref="B2:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -1930,24 +2379,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1043450-795A-4F67-81EF-EC255C8E7E32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1964,29 +2421,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>